--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.14919011932987</v>
+        <v>7.556524</v>
       </c>
       <c r="H2">
-        <v>7.14919011932987</v>
+        <v>22.669572</v>
       </c>
       <c r="I2">
-        <v>0.3328579304726705</v>
+        <v>0.3236988808488902</v>
       </c>
       <c r="J2">
-        <v>0.3328579304726705</v>
+        <v>0.3236988808488901</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.12349974208685</v>
+        <v>1.353118333333333</v>
       </c>
       <c r="N2">
-        <v>1.12349974208685</v>
+        <v>4.059355</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.5236944229679847</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.5236944229679846</v>
       </c>
       <c r="Q2">
-        <v>8.032113255196967</v>
+        <v>10.22487116067333</v>
       </c>
       <c r="R2">
-        <v>8.032113255196967</v>
+        <v>92.02384044606001</v>
       </c>
       <c r="S2">
-        <v>0.3328579304726705</v>
+        <v>0.169519298621542</v>
       </c>
       <c r="T2">
-        <v>0.3328579304726705</v>
+        <v>0.1695192986215419</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.48981376764537</v>
+        <v>7.556524</v>
       </c>
       <c r="H3">
-        <v>7.48981376764537</v>
+        <v>22.669572</v>
       </c>
       <c r="I3">
-        <v>0.3487169691547997</v>
+        <v>0.3236988808488902</v>
       </c>
       <c r="J3">
-        <v>0.3487169691547997</v>
+        <v>0.3236988808488901</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.12349974208685</v>
+        <v>1.230675333333333</v>
       </c>
       <c r="N3">
-        <v>1.12349974208685</v>
+        <v>3.692026</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.4763055770320153</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.4763055770320153</v>
       </c>
       <c r="Q3">
-        <v>8.414803836228112</v>
+        <v>9.299627692541334</v>
       </c>
       <c r="R3">
-        <v>8.414803836228112</v>
+        <v>83.69664923287202</v>
       </c>
       <c r="S3">
-        <v>0.3487169691547997</v>
+        <v>0.1541795822273482</v>
       </c>
       <c r="T3">
-        <v>0.3487169691547997</v>
+        <v>0.1541795822273482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.31664666556966</v>
+        <v>7.625735333333334</v>
       </c>
       <c r="H4">
-        <v>4.31664666556966</v>
+        <v>22.877206</v>
       </c>
       <c r="I4">
-        <v>0.2009780201254394</v>
+        <v>0.326663687305147</v>
       </c>
       <c r="J4">
-        <v>0.2009780201254394</v>
+        <v>0.3266636873051469</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.12349974208685</v>
+        <v>1.353118333333333</v>
       </c>
       <c r="N4">
-        <v>1.12349974208685</v>
+        <v>4.059355</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.5236944229679847</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.5236944229679846</v>
       </c>
       <c r="Q4">
-        <v>4.849751415447574</v>
+        <v>10.31852228468111</v>
       </c>
       <c r="R4">
-        <v>4.849751415447574</v>
+        <v>92.86670056213001</v>
       </c>
       <c r="S4">
-        <v>0.2009780201254394</v>
+        <v>0.1710719512278632</v>
       </c>
       <c r="T4">
-        <v>0.2009780201254394</v>
+        <v>0.1710719512278631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.5225522025397</v>
+        <v>7.625735333333334</v>
       </c>
       <c r="H5">
-        <v>2.5225522025397</v>
+        <v>22.877206</v>
       </c>
       <c r="I5">
-        <v>0.1174470802470904</v>
+        <v>0.326663687305147</v>
       </c>
       <c r="J5">
-        <v>0.1174470802470904</v>
+        <v>0.3266636873051469</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.12349974208685</v>
+        <v>1.230675333333333</v>
       </c>
       <c r="N5">
-        <v>1.12349974208685</v>
+        <v>3.692026</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.4763055770320153</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.4763055770320153</v>
       </c>
       <c r="Q5">
-        <v>2.834086748953968</v>
+        <v>9.384804373261778</v>
       </c>
       <c r="R5">
-        <v>2.834086748953968</v>
+        <v>84.46323935935601</v>
       </c>
       <c r="S5">
-        <v>0.1174470802470904</v>
+        <v>0.1555917360772839</v>
       </c>
       <c r="T5">
-        <v>0.1174470802470904</v>
+        <v>0.1555917360772838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.476188666666666</v>
+      </c>
+      <c r="H6">
+        <v>16.428566</v>
+      </c>
+      <c r="I6">
+        <v>0.2345835390342671</v>
+      </c>
+      <c r="J6">
+        <v>0.234583539034267</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>1.353118333333333</v>
+      </c>
+      <c r="N6">
+        <v>4.059355</v>
+      </c>
+      <c r="O6">
+        <v>0.5236944229679847</v>
+      </c>
+      <c r="P6">
+        <v>0.5236944229679846</v>
+      </c>
+      <c r="Q6">
+        <v>7.409931281658889</v>
+      </c>
+      <c r="R6">
+        <v>66.68938153493001</v>
+      </c>
+      <c r="S6">
+        <v>0.1228500911123382</v>
+      </c>
+      <c r="T6">
+        <v>0.1228500911123382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.476188666666666</v>
+      </c>
+      <c r="H7">
+        <v>16.428566</v>
+      </c>
+      <c r="I7">
+        <v>0.2345835390342671</v>
+      </c>
+      <c r="J7">
+        <v>0.234583539034267</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.230675333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.692026</v>
+      </c>
+      <c r="O7">
+        <v>0.4763055770320153</v>
+      </c>
+      <c r="P7">
+        <v>0.4763055770320153</v>
+      </c>
+      <c r="Q7">
+        <v>6.739410312746222</v>
+      </c>
+      <c r="R7">
+        <v>60.65469281471601</v>
+      </c>
+      <c r="S7">
+        <v>0.1117334479219289</v>
+      </c>
+      <c r="T7">
+        <v>0.1117334479219289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.685852666666667</v>
+      </c>
+      <c r="H8">
+        <v>8.057558</v>
+      </c>
+      <c r="I8">
+        <v>0.1150538928116959</v>
+      </c>
+      <c r="J8">
+        <v>0.1150538928116958</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>1.353118333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.059355</v>
+      </c>
+      <c r="O8">
+        <v>0.5236944229679847</v>
+      </c>
+      <c r="P8">
+        <v>0.5236944229679846</v>
+      </c>
+      <c r="Q8">
+        <v>3.634276483898889</v>
+      </c>
+      <c r="R8">
+        <v>32.70848835509</v>
+      </c>
+      <c r="S8">
+        <v>0.06025308200624144</v>
+      </c>
+      <c r="T8">
+        <v>0.06025308200624141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.685852666666667</v>
+      </c>
+      <c r="H9">
+        <v>8.057558</v>
+      </c>
+      <c r="I9">
+        <v>0.1150538928116959</v>
+      </c>
+      <c r="J9">
+        <v>0.1150538928116958</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.230675333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.692026</v>
+      </c>
+      <c r="O9">
+        <v>0.4763055770320153</v>
+      </c>
+      <c r="P9">
+        <v>0.4763055770320153</v>
+      </c>
+      <c r="Q9">
+        <v>3.305412625834223</v>
+      </c>
+      <c r="R9">
+        <v>29.748713632508</v>
+      </c>
+      <c r="S9">
+        <v>0.05480081080545444</v>
+      </c>
+      <c r="T9">
+        <v>0.05480081080545442</v>
       </c>
     </row>
   </sheetData>
